--- a/optimization model/result/scenario-results.xlsx
+++ b/optimization model/result/scenario-results.xlsx
@@ -69,13 +69,13 @@
     <t>GD (HP)</t>
   </si>
   <si>
-    <t>Investment grant</t>
-  </si>
-  <si>
-    <t>Heating costs subsidy</t>
-  </si>
-  <si>
-    <t>Rent-related revenues</t>
+    <t>Investment grant (owner)</t>
+  </si>
+  <si>
+    <t>Heating costs subsidy (tenants)</t>
+  </si>
+  <si>
+    <t>Rent-related revenues (owner)</t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
   <dimension ref="A1:J143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,7 +483,7 @@
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -532,7 +532,7 @@
         <v>2025</v>
       </c>
       <c r="G2" s="5">
-        <v>-21756</v>
+        <v>-16768</v>
       </c>
       <c r="H2" s="8"/>
     </row>
@@ -556,7 +556,7 @@
         <v>2025</v>
       </c>
       <c r="G3" s="5">
-        <v>-268419</v>
+        <v>-173342</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -579,8 +579,7 @@
         <v>2025</v>
       </c>
       <c r="G4" s="5">
-        <f>G3-G2</f>
-        <v>-246663</v>
+        <v>-103232</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -603,7 +602,7 @@
         <v>2025</v>
       </c>
       <c r="G5" s="5">
-        <v>0</v>
+        <v>-50000</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -626,7 +625,7 @@
         <v>2025</v>
       </c>
       <c r="G6" s="5">
-        <v>0</v>
+        <v>-301485</v>
       </c>
       <c r="H6" s="6"/>
       <c r="J6" s="7"/>
@@ -651,7 +650,7 @@
         <v>2025</v>
       </c>
       <c r="G7" s="5">
-        <v>0</v>
+        <v>-145000</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -743,7 +742,7 @@
         <v>2025</v>
       </c>
       <c r="G11" s="5">
-        <v>0</v>
+        <v>-30336</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -766,7 +765,7 @@
         <v>2025</v>
       </c>
       <c r="G12" s="5">
-        <v>0</v>
+        <v>-165132</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -789,8 +788,9 @@
         <v>2025</v>
       </c>
       <c r="G13" s="5">
-        <v>0</v>
-      </c>
+        <v>-89664</v>
+      </c>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
@@ -881,10 +881,11 @@
         <v>2025</v>
       </c>
       <c r="G17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>-62404</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
@@ -904,10 +905,10 @@
         <v>2025</v>
       </c>
       <c r="G18" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>-148991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -927,19 +928,19 @@
         <v>2025</v>
       </c>
       <c r="G19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>-57596</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G23" s="2"/>
     </row>
     <row r="48" spans="7:7" x14ac:dyDescent="0.3">

--- a/optimization model/result/scenario-results.xlsx
+++ b/optimization model/result/scenario-results.xlsx
@@ -51,31 +51,31 @@
     <t>Multi-apartment building</t>
   </si>
   <si>
-    <t>LD (DH)</t>
-  </si>
-  <si>
-    <t>LD (HP)</t>
-  </si>
-  <si>
-    <t>GD (DH)</t>
-  </si>
-  <si>
-    <t>SC (HP)</t>
-  </si>
-  <si>
-    <t>DT (DH)</t>
-  </si>
-  <si>
-    <t>GD (HP)</t>
-  </si>
-  <si>
-    <t>Investment grant (owner)</t>
-  </si>
-  <si>
     <t>Heating costs subsidy (tenants)</t>
   </si>
   <si>
-    <t>Rent-related revenues (owner)</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Investment grant (landlord)</t>
+  </si>
+  <si>
+    <t>Rent-related revenues (landlord)</t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
   <dimension ref="A1:J143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,7 +483,7 @@
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -517,13 +517,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>5</v>
@@ -541,13 +541,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>5</v>
@@ -564,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -587,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>5</v>
@@ -610,13 +610,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>5</v>
@@ -635,7 +635,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
@@ -664,7 +664,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>5</v>
@@ -687,7 +687,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>5</v>
@@ -733,7 +733,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>5</v>
@@ -756,7 +756,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>5</v>
@@ -797,13 +797,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>5</v>
@@ -820,13 +820,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>5</v>
@@ -843,7 +843,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>9</v>
@@ -866,13 +866,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>5</v>
@@ -890,13 +890,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>5</v>
@@ -913,7 +913,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>9</v>
